--- a/outpost.xlsx
+++ b/outpost.xlsx
@@ -1142,7 +1142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,16 +1179,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1714</v>
+        <v>3497</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WRAP PLSTC FILM 12"</t>
+          <t>BAG GROCERY PAPER 20#</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1707</v>
+        <v>6792</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WRAP FOIL 18" 500'</t>
+          <t>BAG GROCERY PAPER 57#</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -1217,11 +1217,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2152</v>
+        <v>3381</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WRAP FOIL POP-UP 12X10</t>
+          <t>BAG 1LB WHITE W/WINDOW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1235,19 +1235,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>0905</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4638</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BAG KRAFT - 10 LB</t>
+          <t>BAG GROCERY PLSTC T-SHIRT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -1257,18 +1255,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3497</v>
+        <v>3299</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BAG GROCERY PAPER 20#</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
+          <t>BAG KRAFT WINDOW 6.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>0</v>
@@ -1276,11 +1270,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6792</v>
+        <v>7552</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BAG GROCERY PAPER 57#</t>
+          <t>PICNIC PACK HVY WT BLACK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1295,11 +1289,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3381</v>
+        <v>3634</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAG 1LB WHITE W/WINDOW</t>
+          <t>FLATWARE CUTLEREASE KNIFE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1314,11 +1308,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4638</v>
+        <v>3635</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BAG GROCERY PLSTC T-SHIRT</t>
+          <t>FLATWARE CUTLEREASE FORK</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1333,14 +1327,18 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3299</v>
+        <v>3636</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BAG KRAFT WINDOW 6.5</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>FLATWARE CUTLEREASE SPOON</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CASE</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0</v>
@@ -1348,11 +1346,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7552</v>
+        <v>3253</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PICNIC PACK HVY WT BLACK</t>
+          <t>STIRRER WOODEN WRAPPED 7.5"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1367,16 +1365,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3634</v>
+        <v>1665</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FLATWARE CUTLEREASE KNIFE</t>
+          <t>STRAW PLSTC JUMBO 7.75"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1386,11 +1384,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3635</v>
+        <v>1570</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FLATWARE CUTLEREASE FORK</t>
+          <t>NAPKIN MORNAP 13X12 NAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1405,11 +1403,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3636</v>
+        <v>4782</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FLATWARE CUTLEREASE SPOON</t>
+          <t xml:space="preserve">GLOVE VINYL PF LG </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1424,11 +1422,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3253</v>
+        <v>1220</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STIRRER WOODEN WRAPPED 7.5"</t>
+          <t>GLOVE VINYL PF MED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1443,16 +1441,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1665</v>
+        <v>1395</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>STRAW PLSTC JUMBO 7.75"</t>
+          <t>GLOVE VINYL PF XL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1462,16 +1460,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1570</v>
+        <v>3189</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NAPKIN MORNAP 13X12 NAT</t>
+          <t>SLEEVE BURN CUT RESISTANT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1481,11 +1479,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4782</v>
+        <v>3288</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">GLOVE VINYL PF LG </t>
+          <t>HB BOX 6.5"X6.5"X2.25" COMPOSTABLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1500,11 +1498,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1220</v>
+        <v>3327</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GLOVE VINYL PF MED</t>
+          <t>BOWL SOUP 12OZ COMPOST</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1519,11 +1517,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1395</v>
+        <v>3328</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GLOVE VINYL PF XL</t>
+          <t>LID FOR 12&amp; 16 OZ SOUP BOLW COMPOST</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1538,11 +1536,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3189</v>
+        <v>1779</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SLEEVE BURN CUT RESISTANT</t>
+          <t>BOX HINGED LID 1 CMP 6X6X2 COMPOSTABLE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1557,11 +1555,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3288</v>
+        <v>4129</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HB BOX 6.5"X6.5"X2.25" COMPOSTABLE</t>
+          <t>CNTR HINGED 5X5 PLSTC CLEAR (S/O)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1576,11 +1574,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3327</v>
+        <v>3659</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOWL SOUP 12OZ COMPOST</t>
+          <t xml:space="preserve"> CNTR KRAFT BAKEABLE 10 OZ (S/O)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1595,11 +1593,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3328</v>
+        <v>3347</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LID FOR 12&amp; 16 OZ SOUP BOLW COMPOST</t>
+          <t>HUB BOWL REC 32OZ COMPOST</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1614,16 +1612,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1779</v>
+        <v>3348</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOX HINGED LID 1 CMP 6X6X2 COMPOSTABLE</t>
+          <t xml:space="preserve"> HUB LID DOME 32&amp;48 OZ REC BOWL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1633,11 +1631,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4129</v>
+        <v>4969</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CNTR HINGED 5X5 PLSTC CLEAR (S/O)</t>
+          <t>CUP PLSTC SOUFFLE 2 OZ (HOT)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1651,12 +1649,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>3659</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0890</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CNTR KRAFT BAKEABLE 10 OZ (S/O)</t>
+          <t>CUP 16 OZ CLEAR PET (SMOOTHIE)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1671,11 +1671,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3347</v>
+        <v>4972</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HUB BOWL REC 32OZ COMPOST</t>
+          <t>CUP PLSTC SOUFFLE 4 OZ (HOT)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1690,11 +1690,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3348</v>
+        <v>3221</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HUB LID DOME 32&amp;48 OZ REC BOWL</t>
+          <t>CUP PAPER CONE 6 OZ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1709,11 +1709,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4969</v>
+        <v>4970</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUP PLSTC SOUFFLE 2 OZ (HOT)</t>
+          <t>LID PLSTC SOUFFLE 2 OZ (HOT)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1727,14 +1727,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>0890</t>
-        </is>
+      <c r="A31" t="n">
+        <v>4973</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUP 16 OZ CLEAR PET (SMOOTHIE)</t>
+          <t>LID PLSTC SOUFFLE 4 OZ (HOT)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1748,19 +1746,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>4972</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CUP PLSTC SOUFFLE 4 OZ (HOT)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DRY STORAGE - FOOD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>0</v>
@@ -1768,16 +1760,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3221</v>
+        <v>4552</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUP PAPER CONE 6 OZ</t>
+          <t>NUT PIGNOLI PINE NUTS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1786,17 +1778,19 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>4970</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0404</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LID PLSTC SOUFFLE 2 OZ (HOT)</t>
+          <t>SUGAR GRANULATED</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BAG</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1806,11 +1800,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4973</v>
+        <v>4892</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LID PLSTC SOUFFLE 4 OZ (HOT)</t>
+          <t>PC SWTNR ARTFCL SPLENDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1820,17 +1814,25 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DRY STORAGE - FOOD</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>0407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PC SWTNR ARTFCL EQUAL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CASE</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0</v>
@@ -1838,16 +1840,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4552</v>
+        <v>2276</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NUT PIGNOLI PINE NUTS</t>
+          <t>PEPPERS JALAPEN SLCD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1858,17 +1860,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0404</t>
+          <t>0099</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SUGAR GRANULATED</t>
+          <t xml:space="preserve">PICKLE DILL CHIPS THIN </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BAG</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1877,12 +1879,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>4892</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0193</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PC SWTNR ARTFCL SPLENDA</t>
+          <t>PC JELLY GRAPE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1898,12 +1902,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0407</t>
+          <t>0200</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PC SWTNR ARTFCL EQUAL</t>
+          <t>PC JELLY - STRAWBERRY JAM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1917,17 +1921,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>2276</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PEPPERS JALAPEN SLCD</t>
+          <t>PC NUTELLA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1938,17 +1944,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0099</t>
+          <t>0496</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">PICKLE DILL CHIPS THIN </t>
+          <t>PC PEANUT BUTTER</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1959,17 +1965,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0193</t>
+          <t>0427</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PC JELLY GRAPE</t>
+          <t>FLOUR ALL PURPOSE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1978,19 +1984,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>0200</t>
-        </is>
+      <c r="A44" t="n">
+        <v>4622</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PC JELLY - STRAWBERRY JAM</t>
+          <t>FLOUR RICE WHIT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2001,17 +2005,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0205</t>
+          <t>0421</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PC NUTELLA</t>
+          <t>CORNSTARCH</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2020,14 +2024,12 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>0496</t>
-        </is>
+      <c r="A46" t="n">
+        <v>3505</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PC PEANUT BUTTER</t>
+          <t>SUGAR BROWN LT 1LB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2043,17 +2045,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0427</t>
+          <t>0062</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FLOUR ALL PURPOSE</t>
+          <t>GRAIN RICE CONVERTED LONG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2062,17 +2064,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>4622</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0399</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FLOUR RICE WHIT</t>
+          <t>HONEY WHIT CLOVER</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>BTL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2081,19 +2085,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>0421</t>
-        </is>
+      <c r="A49" t="n">
+        <v>1392</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CORNSTARCH</t>
+          <t>VEG BEANS REFRIED</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2102,12 +2104,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>3505</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0350</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SUGAR BROWN LT 1LB</t>
+          <t>VEG TOMATO DICED IN JUICE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2123,17 +2127,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0062</t>
+          <t>0348</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GRAIN RICE CONVERTED LONG</t>
+          <t>VEG TOMATO PUREE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2144,17 +2148,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0399</t>
+          <t>0347</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HONEY WHIT CLOVER</t>
+          <t>VEG TOMATO PASTE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BTL</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2164,11 +2168,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1392</v>
+        <v>4227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VEG BEANS REFRIED</t>
+          <t>CHILES GREEN DICED</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2182,14 +2186,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>0350</t>
-        </is>
+      <c r="A54" t="n">
+        <v>1817</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VEG TOMATO DICED IN JUICE</t>
+          <t>VEG BEANS BLACK</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2205,12 +2207,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0348</t>
+          <t>0314</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VEG TOMATO PUREE</t>
+          <t>VEG BEANS RED KIDNEY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2226,17 +2228,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0347</t>
+          <t>0330</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VEG TOMATO PASTE</t>
+          <t>VEG PEAS CHICK</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2245,12 +2247,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>4227</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0120</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CHILES GREEN DICED</t>
+          <t>VINEGAR CIDER</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2264,12 +2268,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1817</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0663</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VEG BEANS BLACK</t>
+          <t>VINEGAR RED WINE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2283,14 +2289,12 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>0314</t>
-        </is>
+      <c r="A59" t="n">
+        <v>4876</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VEG BEANS RED KIDNEY</t>
+          <t>VINEGAR BALSAMIC 5LTR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2304,19 +2308,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>0330</t>
-        </is>
+      <c r="A60" t="n">
+        <v>1247</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VEG PEAS CHICK</t>
+          <t>VINEGAR RICE UNSEASONED</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>QT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2327,17 +2329,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0120</t>
+          <t>0211</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>VINEGAR CIDER</t>
+          <t>PASTA MACARONI ELBOW</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2346,19 +2348,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>0663</t>
-        </is>
+      <c r="A62" t="n">
+        <v>4114</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VINEGAR RED WINE</t>
+          <t>OIL OLIVE PURE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2367,12 +2367,14 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>4876</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0087</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VINEGAR BALSAMIC 5LTR</t>
+          <t>DRESS MAYONNAISE GAL (DBL EGG)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2387,16 +2389,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1247</v>
+        <v>4763</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VINEGAR RICE UNSEASONED</t>
+          <t>SAUCE CATSUP DISPENSER PACK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>QT</t>
+          <t>BAG</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2407,17 +2409,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0211</t>
+          <t>0244</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PASTA MACARONI ELBOW</t>
+          <t>DRESS MAYONNAISE DISP PACK</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>1.5GL</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2427,16 +2429,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4114</v>
+        <v>1474</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OIL OLIVE PURE</t>
+          <t>SAUCE HONEY MUSTARD DISP PACK</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t xml:space="preserve">1.5G </t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2445,19 +2447,17 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>0087</t>
-        </is>
+      <c r="A67" t="n">
+        <v>6398</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DRESS MAYONNAISE GAL (DBL EGG)</t>
+          <t>FRANKS RED HOT - DISPENSER PACK</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4763</v>
+        <v>2214</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SAUCE CATSUP DISPENSER PACK</t>
+          <t xml:space="preserve">SAUCE CATSUP   </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BAG</t>
+          <t>3/GAL</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2485,19 +2485,17 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>0244</t>
-        </is>
+      <c r="A69" t="n">
+        <v>1390</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRESS MAYONNAISE DISP PACK</t>
+          <t>OLIVE SLCD BLACK</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1.5GL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2506,17 +2504,19 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1474</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SAUCE HONEY MUSTARD DISP PACK</t>
+          <t>SAUCE FISH</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.5G </t>
+          <t>BTL</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6398</v>
+        <v>4071</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRANKS RED HOT - DISPENSER PACK</t>
+          <t>SAUCE HOT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2544,17 +2544,19 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>2214</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0057</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAUCE CATSUP   </t>
+          <t>SAUCE CHILI SRIRACHA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3/GAL</t>
+          <t>BTL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2563,12 +2565,14 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1390</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0113</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>OLIVE SLCD BLACK</t>
+          <t>SAUCE SOY</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2582,14 +2586,12 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>0018</t>
-        </is>
+      <c r="A74" t="n">
+        <v>2459</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SAUCE FISH</t>
+          <t>SAUCE MUSTARD DIJON</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2603,17 +2605,19 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>4071</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0117</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SAUCE HOT</t>
+          <t>SAUCE TABASCO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>BTL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2624,17 +2628,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0057</t>
+          <t>0118</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SAUCE CHILI SRIRACHA</t>
+          <t>SAUCE WORCESTERSHIRE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BTL</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2645,12 +2649,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0113</t>
+          <t>0108</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SAUCE SOY</t>
+          <t>SAUCE CHEESE CHEDDAR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2664,17 +2668,19 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>2459</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0443</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SAUCE MUSTARD DIJON</t>
+          <t>OIL VEG CANOLA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BTL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -2683,19 +2689,17 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>0117</t>
-        </is>
+      <c r="A79" t="n">
+        <v>2213</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SAUCE TABASCO</t>
+          <t>OIL COATING PAN AEROSOL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BTL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -2704,19 +2708,17 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>0118</t>
-        </is>
+      <c r="A80" t="n">
+        <v>4826</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SAUCE WORCESTERSHIRE</t>
+          <t>OLILVE PITTED CALAMATA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2725,14 +2727,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>0108</t>
-        </is>
+      <c r="A81" t="n">
+        <v>3515</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SAUCE CHEESE CHEDDAR</t>
+          <t>CHIPS TORTILLA WHITE TRIANGLE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2748,17 +2748,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0443</t>
+          <t>0134</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>OIL VEG CANOLA</t>
+          <t>CROUTONS SEASONED</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2767,17 +2767,19 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2213</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0098</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>OIL COATING PAN AEROSOL</t>
+          <t>PEPPERS PEPPERONCINI HOT WHL GREEN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -2786,17 +2788,19 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>4826</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0298</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>OLILVE PITTED CALAMATA</t>
+          <t>SPICE SALT COOKING</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -2806,11 +2810,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3515</v>
+        <v>1643</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHIPS TORTILLA WHITE TRIANGLE</t>
+          <t>SPICE - KOSHER SALT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2824,19 +2828,17 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>0134</t>
-        </is>
+      <c r="A86" t="n">
+        <v>1271</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CROUTONS SEASONED</t>
+          <t>SPICE PEPPER BLACK CRACKED</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2847,17 +2849,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0098</t>
+          <t>0275</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PEPPERS PEPPERONCINI HOT WHL GREEN</t>
+          <t>SPICE MUSTARD DRY</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2866,19 +2868,17 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>0298</t>
-        </is>
+      <c r="A88" t="n">
+        <v>1145</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SPICE SALT COOKING</t>
+          <t>SPICE THYME LEAVES</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2887,17 +2887,19 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1643</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0284</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SPICE - KOSHER SALT</t>
+          <t>SPICE PEPPERCORN BLCK WHL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -2906,17 +2908,19 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>1271</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0285</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SPICE PEPPER BLACK CRACKED</t>
+          <t>SPICE BLACK PEPPER GROUND</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>5LB CNTR</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -2927,17 +2931,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0275</t>
+          <t>0288</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SPICE MUSTARD DRY</t>
+          <t>SPICE PEPPER WHITE GROUND</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2946,12 +2950,14 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>1145</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0287</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SPICE THYME LEAVES</t>
+          <t>SPICE PEPPER RED CRUSHED</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2967,12 +2973,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0284</t>
+          <t>0286</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SPICE PEPPERCORN BLCK WHL</t>
+          <t>SPICE PEPPER CAYENNE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2986,19 +2992,17 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>0285</t>
-        </is>
+      <c r="A94" t="n">
+        <v>1444</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SPICE BLACK PEPPER GROUND</t>
+          <t>SPICE PAPRIKA SMOKED</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5LB CNTR</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3009,12 +3013,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0288</t>
+          <t>0282</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SPICE PEPPER WHITE GROUND</t>
+          <t>SPICE PAPRIKA GROUND</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3030,12 +3034,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0287</t>
+          <t>0280</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SPICE PEPPER RED CRUSHED</t>
+          <t>SPICE OREGANO WHOLE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3049,14 +3053,12 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>0286</t>
-        </is>
+      <c r="A97" t="n">
+        <v>4712</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SPICE PEPPER CAYENNE</t>
+          <t>SPICE ONION POWDER</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3070,12 +3072,14 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>1444</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0259</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SPICE PAPRIKA SMOKED</t>
+          <t>SPICE GARLIC POWDER</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3091,12 +3095,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0282</t>
+          <t>0256</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SPICE PAPRIKA GROUND</t>
+          <t>SPICE CUMIN SEED GROUND</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3110,14 +3114,12 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0280</t>
-        </is>
+      <c r="A100" t="n">
+        <v>1334</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SPICE OREGANO WHOLE</t>
+          <t>SPICE CORIANDER GROUND</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3131,12 +3133,14 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>4712</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0250</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SPICE ONION POWDER</t>
+          <t>SPICE CHILI POWDER DARK</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3150,14 +3154,12 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>0259</t>
-        </is>
+      <c r="A102" t="n">
+        <v>4387</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SPICE GARLIC POWDER</t>
+          <t>SPICE BAY LEAVES WHL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3173,12 +3175,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0256</t>
+          <t>0241</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SPICE CUMIN SEED GROUND</t>
+          <t>SPICE BASIL LEAVES</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3193,16 +3195,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1334</v>
+        <v>1900</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SPICE CORIANDER GROUND</t>
+          <t>QUINOA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>BAG</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -3211,14 +3213,12 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>0250</t>
-        </is>
+      <c r="A105" t="n">
+        <v>3147</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SPICE CHILI POWDER DARK</t>
+          <t>PASTE GOCHUJANG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3233,16 +3233,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4387</v>
+        <v>4003</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SPICE BAY LEAVES WHL</t>
+          <t>SESAME OIL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -3251,19 +3251,17 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>0241</t>
-        </is>
+      <c r="A107" t="n">
+        <v>1626</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SPICE BASIL LEAVES</t>
+          <t xml:space="preserve">MIRIN </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>BTL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -3273,16 +3271,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1900</v>
+        <v>4675</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>QUINOA</t>
+          <t xml:space="preserve">MISO </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BAG</t>
+          <t>PKG</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -3292,16 +3290,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3147</v>
+        <v>1223</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PASTE GOCHUJANG</t>
+          <t>TAHINI PASTE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>JAR</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -3311,16 +3309,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4003</v>
+        <v>1396</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SESAME OIL</t>
+          <t>ROASTED RED PEPPERS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -3329,17 +3327,19 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>1626</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0093</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">MIRIN </t>
+          <t>SAUCE MUSTARD YELLO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>BTL</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -3349,16 +3349,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4675</v>
+        <v>4086</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISO </t>
+          <t>DRY RANCH MIX - HIDDEN VALLEY</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PKG</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -3368,16 +3368,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1223</v>
+        <v>2568</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TAHINI PASTE</t>
+          <t>SAUCE BBQ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JAR</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -3386,12 +3386,14 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>1396</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ROASTED RED PEPPERS</t>
+          <t>PINEAPPLE JUICE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3407,12 +3409,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0093</t>
+          <t>0262</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SAUCE MUSTARD YELLO</t>
+          <t>GINGER POWDER</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3426,17 +3428,19 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>4086</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0238</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DRY RANCH MIX - HIDDEN VALLEY</t>
+          <t>ALLSPICE GROUND</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -3445,17 +3449,19 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>2568</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0276</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SAUCE BBQ</t>
+          <t>NUTMEG</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>CNTR</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -3464,19 +3470,17 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>0208</t>
-        </is>
+      <c r="A118" t="n">
+        <v>4386</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PINEAPPLE JUICE</t>
+          <t>CINNAMON BULK</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -3485,19 +3489,17 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>0262</t>
-        </is>
+      <c r="A119" t="n">
+        <v>1422</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GINGER POWDER</t>
+          <t>BANANA PEPPERS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -3508,19 +3510,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0238</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ALLSPICE GROUND</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CNTR</t>
-        </is>
-      </c>
+          <t>WALK-IN FREEZER (MEATS)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
         <v>0</v>
@@ -3529,17 +3523,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0276</t>
+          <t>0419</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NUTMEG</t>
+          <t>VEGAN BURGER MEAT IMPOSSIBLE (20LB/CS)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -3549,11 +3543,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4386</v>
+        <v>2260</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CINNAMON BULK</t>
+          <t>TURKEY BREAST RAW BNLS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3568,16 +3562,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1422</v>
+        <v>4219</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BANANA PEPPERS</t>
+          <t>DELI TURKEY BRST SLICED</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -3588,11 +3582,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>WALK-IN FREEZER (MEATS)</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+          <t>0584</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PORK BUTT BNLS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
         <v>0</v>
@@ -3601,17 +3603,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0419</t>
+          <t>0701</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>VEGAN BURGER MEAT IMPOSSIBLE (20LB/CS)</t>
+          <t>DELI PORK HAM SMKD BNLS FC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -3620,12 +3622,14 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>2260</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0709</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TURKEY BREAST RAW BNLS</t>
+          <t>CHIX WHIT/DARK DICED FC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3640,11 +3644,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4219</v>
+        <v>3373</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DELI TURKEY BRST SLICED</t>
+          <t>CHIX HALAL THIGH BNLS SKNLS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3658,19 +3662,17 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>0584</t>
-        </is>
+      <c r="A128" t="n">
+        <v>4995</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PORK BUTT BNLS</t>
+          <t>CHIX BRST NAT FILET SKNLS GF 4OZ (15LB/CS)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -3681,12 +3683,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0701</t>
+          <t>0614</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DELI PORK HAM SMKD BNLS FC</t>
+          <t>BEEF STK FLANK</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3700,14 +3702,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>0709</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CHIX WHIT/DARK DICED FC</t>
+          <t xml:space="preserve"> HTL CHIX BRST NAT FILET SKNLS 6OZ</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3722,16 +3720,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3373</v>
+        <v>4589</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CHIX HALAL THIGH BNLS SKNLS</t>
+          <t>PORK SAUSAGE PATTY FC 2OZ</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -3740,12 +3738,14 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>4995</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0697</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CHIX BRST NAT FILET SKNLS GF 4OZ (15LB/CS)</t>
+          <t>PORK BACON SLCD LAYOUT 18-22 CT</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3759,14 +3759,12 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>0614</t>
-        </is>
+      <c r="A133" t="n">
+        <v>2926</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BEEF STK FLANK</t>
+          <t>DELI PEPPERONI SLCD</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3780,15 +3778,19 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0714</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HTL CHIX BRST NAT FILET SKNLS 6OZ</t>
+          <t>CHIX BRST TENDER BRD</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3797,12 +3799,14 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>4589</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0713</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PORK SAUSAGE PATTY FC 2OZ</t>
+          <t>CHIX BRST FILET BRD 4OZ</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3816,14 +3820,12 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>0697</t>
-        </is>
+      <c r="A136" t="n">
+        <v>3605</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PORK BACON SLCD LAYOUT 18-22 CT</t>
+          <t>BEEF STK SANDWICH 5 OZ</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3837,17 +3839,19 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>2926</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0554</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DELI PEPPERONI SLCD</t>
+          <t>CHIX BRST FILET BRD SLIDER</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -3858,33 +3862,23 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0714</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>CHIX BRST TENDER BRD</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
+          <t xml:space="preserve">WALK-IN FREEZER </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>0713</t>
-        </is>
+      <c r="A139" t="n">
+        <v>4354</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CHIX BRST FILET BRD 4OZ</t>
+          <t>WRAP TORTILLA WHIT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3898,12 +3892,14 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>3605</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0501</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BEEF STK SANDWICH 5 OZ</t>
+          <t>VEG FZN CORN WHL KERNEL YELLOW (20LB/CASE)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3917,14 +3913,12 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>0554</t>
-        </is>
+      <c r="A141" t="n">
+        <v>4692</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CHIX BRST FILET BRD SLIDER</t>
+          <t>SAUCE PESTO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3938,25 +3932,33 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WALK-IN FREEZER </t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+      <c r="A142" t="n">
+        <v>3295</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ROLL SUB WHIT THAW &amp; SERVE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CASE</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>4354</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0390</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>WRAP TORTILLA WHIT</t>
+          <t>ROLL POTATO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3970,14 +3972,12 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>0501</t>
-        </is>
+      <c r="A144" t="n">
+        <v>4832</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VEG FZN CORN WHL KERNEL YELLOW (20LB/CASE)</t>
+          <t>PASTA FZN SHT REG 4OZ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3992,11 +3992,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4692</v>
+        <v>1045</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SAUCE PESTO</t>
+          <t>PASTA - SPAETZLE / RIVELS (S/0)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4011,11 +4011,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3295</v>
+        <v>1455</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ROLL SUB WHIT THAW &amp; SERVE</t>
+          <t>GUACOMOLE FZN MILD</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4031,17 +4031,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0390</t>
+          <t>0313</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ROLL POTATO</t>
+          <t>CIABATTA ROLL 3.20Z</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>40/CASE</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -4051,16 +4051,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4832</v>
+        <v>4921</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PASTA FZN SHT REG 4OZ</t>
+          <t>NAAN BREAD TANDOORI</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>48/CASE</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -4070,11 +4070,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1045</v>
+        <v>4511</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PASTA - SPAETZLE / RIVELS (S/0)</t>
+          <t>BEV BASE FZN SMOOTHIE STRAWB/BAN</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4089,11 +4089,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1455</v>
+        <v>4548</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GUACOMOLE FZN MILD</t>
+          <t>BEV BASE FZN SMOOTHIE MANGO</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4107,19 +4107,17 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>0313</t>
-        </is>
+      <c r="A151" t="n">
+        <v>4540</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CIABATTA ROLL 3.20Z</t>
+          <t>BEV BASE FZN SMOOTHIE CARIB</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>40/CASE</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -4129,16 +4127,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4921</v>
+        <v>4533</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NAAN BREAD TANDOORI</t>
+          <t>BEV BASE FZN SMOOTHIE BERRY</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>48/CASE</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -4147,17 +4145,19 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>4511</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0511</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BEV BASE FZN SMOOTHIE STRAWB/BAN</t>
+          <t>VEG FZN POT F/F/ PATTY (HASHBROWN)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>120CS</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -4167,11 +4167,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4548</v>
+        <v>3552</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BEV BASE FZN SMOOTHIE MANGO</t>
+          <t>BAGEL - WHOLE WHEAT</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4186,11 +4186,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4540</v>
+        <v>3599</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BEV BASE FZN SMOOTHIE CARIB</t>
+          <t>BAGEL - PLAIN</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4205,11 +4205,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4533</v>
+        <v>3571</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BEV BASE FZN SMOOTHIE BERRY</t>
+          <t>BAGEL - EVERYTHING</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4223,19 +4223,17 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>0511</t>
-        </is>
+      <c r="A157" t="n">
+        <v>3522</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>VEG FZN POT F/F/ PATTY (HASHBROWN)</t>
+          <t>BAGEL - CINN RAISIN</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>120CS</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -4245,11 +4243,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3552</v>
+        <v>3585</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BAGEL - WHOLE WHEAT</t>
+          <t>BAGEL - BLUEBERRY</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4264,16 +4262,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3599</v>
+        <v>2151</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BAGEL - PLAIN</t>
+          <t>BKY CS COOKIE CCHIP 3.125</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>36/CS</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -4283,11 +4281,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3571</v>
+        <v>2881</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BAGEL - EVERYTHING</t>
+          <t>BKY CS PACK BROOKIE</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4302,11 +4300,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3522</v>
+        <v>1192</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BAGEL - CINN RAISIN</t>
+          <t>BISCUIT BUTTERMILK LG FZN</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4321,11 +4319,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3585</v>
+        <v>2040</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BAGEL - BLUEBERRY</t>
+          <t>BKY CS ICED BROWN</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4339,17 +4337,19 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>2151</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0582</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BKY CS COOKIE CCHIP 3.125</t>
+          <t>JUICE LIME FROZEN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>36/CS</t>
+          <t>QT</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -4358,19 +4358,13 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>2881</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>BKY CS PACK BROOKIE</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WALK-IN </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
         <v>0</v>
@@ -4378,16 +4372,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1192</v>
+        <v>1568</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BISCUIT BUTTERMILK LG FZN</t>
+          <t xml:space="preserve">TIKKA PASTE </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -4396,17 +4390,19 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>2040</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BKY CS ICED BROWN</t>
+          <t>CHEESE PANEER (USSO)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -4415,19 +4411,17 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>0582</t>
-        </is>
+      <c r="A167" t="n">
+        <v>1941</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>JUICE LIME FROZEN</t>
+          <t>PICKLE KOSHER DILL SPEAR</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>QT</t>
+          <t>PAIL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -4436,13 +4430,19 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WALK-IN </t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
+      <c r="A168" t="n">
+        <v>1486</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CHEESE SWISS SLCD</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>LB</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
         <v>0</v>
@@ -4450,11 +4450,11 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1568</v>
+        <v>2283</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">TIKKA PASTE </t>
+          <t xml:space="preserve">CHEESE ROMANO GRATED IMPROTED </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4470,12 +4470,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0984</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CHEESE PANEER (USSO)</t>
+          <t>CHEESE PROV SLCD</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4490,16 +4490,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1941</v>
+        <v>4798</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PICKLE KOSHER DILL SPEAR</t>
+          <t>CHEESE PIZZA BLND PROV-MOZZ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PAIL</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -4509,11 +4509,11 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1486</v>
+        <v>1302</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CHEESE SWISS SLCD</t>
+          <t>CHEESE PEPPER JACK SLCD</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4527,12 +4527,14 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>2283</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>0328</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHEESE ROMANO GRATED IMPROTED </t>
+          <t>CHEESE PARM SHRD</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4548,12 +4550,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0984</t>
+          <t>0578</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CHEESE PROV SLCD</t>
+          <t>CHEESE FETA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4567,12 +4569,14 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>4798</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0464</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CHEESE PIZZA BLND PROV-MOZZ</t>
+          <t>CHEESE DOMESTIC GRATED</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4587,11 +4591,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1302</v>
+        <v>4940</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CHEESE PEPPER JACK SLCD</t>
+          <t>CHEESE CHEDDAR SHRD</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4607,12 +4611,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0328</t>
+          <t>0457</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CHEESE PARM SHRD</t>
+          <t xml:space="preserve">CHEESE CHEDDAR COLORED </t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4626,14 +4630,12 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>0578</t>
-        </is>
+      <c r="A178" t="n">
+        <v>3719</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CHEESE FETA</t>
+          <t>CHEESE AMERICAN SHARP WHITE</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4649,12 +4651,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0464</t>
+          <t>0021</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CHEESE DOMESTIC GRATED</t>
+          <t>CHEESE CHED WHIT/JACK SHRD</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4669,11 +4671,11 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4940</v>
+        <v>4042</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CHEESE CHEDDAR SHRD</t>
+          <t>CHEESE BLEU CRUMBLED</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4689,12 +4691,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0457</t>
+          <t>0456</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHEESE CHEDDAR COLORED </t>
+          <t>CHEESE AMER YEL SLCD 160CT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4708,17 +4710,19 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>3719</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>0926</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CHEESE AMERICAN SHARP WHITE</t>
+          <t>SOUP BASE GF VEG GOLDEN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -4729,17 +4733,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0021</t>
+          <t>0631</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CHEESE CHED WHIT/JACK SHRD</t>
+          <t>BASE CHIPOTLE</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -4748,17 +4752,19 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>4042</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0231</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CHEESE BLEU CRUMBLED</t>
+          <t>BASE CHIX GF</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>6/CASE</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -4767,19 +4773,17 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>0456</t>
-        </is>
+      <c r="A185" t="n">
+        <v>1526</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CHEESE AMER YEL SLCD 160CT</t>
+          <t>EGG LIQUID WHL</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -4790,12 +4794,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0926</t>
+          <t>0469</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SOUP BASE GF VEG GOLDEN</t>
+          <t>EGG FRESH</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4811,12 +4815,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0631</t>
+          <t>0576</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BASE CHIPOTLE</t>
+          <t>CRM WHIPPING LT AEROSOL</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4832,17 +4836,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0231</t>
+          <t>0168</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BASE CHIX GF</t>
+          <t>CHEESE MOZZ FRESH SLCD 10Z NO BRINE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6/CASE</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -4852,11 +4856,11 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1526</v>
+        <v>4021</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>EGG LIQUID WHL</t>
+          <t>HARD BOILED EGGS (WHL PLD COOKED)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4870,14 +4874,12 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>0469</t>
-        </is>
+      <c r="A190" t="n">
+        <v>1400</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>EGG FRESH</t>
+          <t>GREEK YOGURT 0% FAT</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4893,38 +4895,28 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0576</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>CRM WHIPPING LT AEROSOL</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>CASE</t>
-        </is>
-      </c>
+          <t>SUPPLIES</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>0168</t>
-        </is>
+      <c r="A192" t="n">
+        <v>4801</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CHEESE MOZZ FRESH SLCD 10Z NO BRINE</t>
+          <t>SAF-CHECK WITH QUAT TEST STRIP</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -4934,11 +4926,11 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4021</v>
+        <v>3026</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>HARD BOILED EGGS (WHL PLD COOKED)</t>
+          <t>TOWEL CWC BLUE STRIPE</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4952,17 +4944,19 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1400</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>0971</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>GREEK YOGURT 0% FAT</t>
+          <t>REGISTER TAPE MICROS SYSTEM</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -4971,13 +4965,19 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SUPPLIES</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
+      <c r="A195" t="n">
+        <v>6328</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>REGISTER TAPE STICKY</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>EACH</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>0</v>
@@ -4985,16 +4985,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>4801</v>
+        <v>2344</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SAF-CHECK WITH QUAT TEST STRIP</t>
+          <t>CLNR ALCOHOL SWAB</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -5004,16 +5004,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3026</v>
+        <v>7781</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TOWEL CWC BLUE STRIPE</t>
+          <t>DAYDOTS "USE FIRST"</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>ROLL/500</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -5022,19 +5022,17 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>0971</t>
-        </is>
+      <c r="A198" t="n">
+        <v>2929</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>REGISTER TAPE MICROS SYSTEM</t>
+          <t>DAYDOTS MON 2" BLUE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -5044,16 +5042,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>6328</v>
+        <v>2930</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>REGISTER TAPE STICKY</t>
+          <t>DAYDOTS TUE 2" YEL</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -5063,16 +5061,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2344</v>
+        <v>2931</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CLNR ALCOHOL SWAB</t>
+          <t>DAYDOTS WED 2" RED</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -5082,16 +5080,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>7781</v>
+        <v>2935</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DAYDOTS "USE FIRST"</t>
+          <t>DAYDOTS THUR 2" BRN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ROLL/500</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -5101,11 +5099,11 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2929</v>
+        <v>2936</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DAYDOTS MON 2" BLUE</t>
+          <t>DAYDOTS FRI 2" GREEN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5120,16 +5118,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2930</v>
+        <v>3424</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DAYDOTS TUE 2" YEL</t>
+          <t>LABEL PSU EATS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -5139,16 +5137,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2931</v>
+        <v>4311</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DAYDOTS WED 2" RED</t>
+          <t>CLNR ALTO SHM SCALE FREE</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>JAR</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -5158,16 +5156,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2935</v>
+        <v>3245</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DAYDOTS THUR 2" BRN</t>
+          <t>SAFTY BAG OPENER</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>EACH</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -5177,16 +5175,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2936</v>
+        <v>3021</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DAYDOTS FRI 2" GREEN</t>
+          <t>TOWEL QUAT SANITIZING</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -5196,16 +5194,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3424</v>
+        <v>3852</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>LABEL PSU EATS</t>
+          <t>CLNR - DAWN DISH LIQUID</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>TUB</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -5215,16 +5213,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>4311</v>
+        <v>1320</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>CLNR ALTO SHM SCALE FREE</t>
+          <t>CLNR KEATING KLENSER</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>JAR</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -5234,16 +5232,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3245</v>
+        <v>3265</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SAFTY BAG OPENER</t>
+          <t>CLNR SOLID POWER XL</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EACH</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -5253,11 +5251,11 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3021</v>
+        <v>3846</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TOWEL QUAT SANITIZING</t>
+          <t>CLNR ECL SCOUT 2-2 GAL</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5272,16 +5270,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3852</v>
+        <v>1018</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>CLNR - DAWN DISH LIQUID</t>
+          <t>CLNR ECL LIME AWAY DELIMING</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TUB</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -5291,11 +5289,11 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1320</v>
+        <v>1015</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>CLNR KEATING KLENSER</t>
+          <t>CLNR ECL GREASE CUTTER PLUS</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5310,11 +5308,11 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3265</v>
+        <v>4281</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>CLNR SOLID POWER XL</t>
+          <t>CLNR APEX RINSE ADDITIVE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5329,11 +5327,11 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3846</v>
+        <v>4724</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CLNR ECL SCOUT 2-2 GAL</t>
+          <t>CLNR ALTO SHM SPRAY-COMBITHRM</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5348,11 +5346,11 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1018</v>
+        <v>4584</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CLNR ECL LIME AWAY DELIMING</t>
+          <t>CLNR ECL PATHWAYS DRAIN (S/O)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5367,11 +5365,11 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1015</v>
+        <v>4272</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CLNR ECL GREASE CUTTER PLUS</t>
+          <t>CLNR TURBO CHEF OVEN CLEANER (S/O)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5386,16 +5384,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>4281</v>
+        <v>3170</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CLNR APEX RINSE ADDITIVE</t>
+          <t>PAD SCOURING PURPLE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -5405,16 +5403,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>4724</v>
+        <v>4025</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CLNR ALTO SHM SPRAY-COMBITHRM</t>
+          <t>CLNR STEAM WAND SCHAERER</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BOTTL</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -5424,16 +5422,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>4584</v>
+        <v>4004</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CLNR ECL PATHWAYS DRAIN (S/O)</t>
+          <t>CLNR ALTO SHM COMBICLN CTPTAB</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>BKT5</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -5443,16 +5441,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>4272</v>
+        <v>4593</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>CLNR TURBO CHEF OVEN CLEANER (S/O)</t>
+          <t>CLNR ECL PEROXIDE MULTI-SURFACE DIS</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>2GAL</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -5462,16 +5460,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3170</v>
+        <v>4534</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PAD SCOURING PURPLE</t>
+          <t>CLNR ECL OASIS QUAT SANITIZER</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BOX</t>
+          <t>2.5GL</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -5481,96 +5479,20 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>4025</v>
+        <v>4495</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>CLNR STEAM WAND SCHAERER</t>
+          <t>CLNR ECL OASIS FLOOR AMMONIATED</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BOTTL</t>
+          <t>2.5GL</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>4004</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>CLNR ALTO SHM COMBICLN CTPTAB</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>BKT5</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>4593</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>CLNR ECL PEROXIDE MULTI-SURFACE DIS</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2GAL</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>4534</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>CLNR ECL OASIS QUAT SANITIZER</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2.5GL</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>4495</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>CLNR ECL OASIS FLOOR AMMONIATED</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2.5GL</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="n">
         <v>0</v>
       </c>
     </row>
